--- a/ML/Regression/poly-salary.xlsx
+++ b/ML/Regression/poly-salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anas\Desktop\AI\ML\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F55D9-49F2-4A53-91C7-FC9909208500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67121127-63A0-439B-894D-77CE65B8DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +50,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,10 +81,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -82,8 +93,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,59 +397,155 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B6" s="2">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B8" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B10" s="2">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B12" s="2">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>200000</v>
+      <c r="B14" s="2">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>220000</v>
       </c>
     </row>
   </sheetData>

--- a/ML/Regression/poly-salary.xlsx
+++ b/ML/Regression/poly-salary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anas\Desktop\AI\ML\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67121127-63A0-439B-894D-77CE65B8DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B677684-41D1-427C-A3D8-A532436928E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
